--- a/biology/Botanique/Jardins_de_Kerdalo/Jardins_de_Kerdalo.xlsx
+++ b/biology/Botanique/Jardins_de_Kerdalo/Jardins_de_Kerdalo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de Kerdalo se situent sur la commune française de Trédarzec dans le département des Côtes-d'Armor (Bretagne). Créés en 1965 par le prince Pierre Wolkonsky, ils sont inscrits depuis 2005 sur la liste des jardins remarquables et ont été inscrits à l'inventaire des Monuments historiques en 2007.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins de Kerdalo s'étendent sur 18 hectares, le long d'un vallon encaissé qui descend en pente douce vers la rivière du Jaudy. Ce jardin-paysage à l'anglaise emprunte différents éléments d'inspiration italienne ou exotique.
 Au-dessus du manoir s'étagent des terrasses italiennes plantées de spécimens exotiques. Un long bassin rectangulaire dans la partie haute du vallon s'achève sur une pagode d’inspiration chinoise.
@@ -546,11 +560,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1965, Peter Wolkonsky achète les vieux bâtiments de ferme d'une exploitation agricole et recompose façades et toitures dans le style d'un ancien logis manorial du XVIIe siècle. Il creuse les différentes pièces d'eau et bâtit et décore des constructions annexes, fontaine ou pavillons et grotte italienne ornés de coquillages.  
 Les tempêtes de 1987 et 1999 causent de grands dégâts. Après la mort de Peter Wolkonsky en 1997, sa fille Isabelle et son mari Timothy Vaughan restaurent le jardin et poursuivent l'œuvre de son créateur.
-En 2021 les Jardins de Kerdalo sont achetés par le créateur de chaussures de luxe Christian Louboutin[2].
+En 2021 les Jardins de Kerdalo sont achetés par le créateur de chaussures de luxe Christian Louboutin.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jardins de Kerdalo sont inscrits depuis 2005 sur la liste des jardins remarquables. Ils ont été inscrits à l'inventaire des Monuments historiques le 22 juin 2007[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins de Kerdalo sont inscrits depuis 2005 sur la liste des jardins remarquables. Ils ont été inscrits à l'inventaire des Monuments historiques le 22 juin 2007.
 </t>
         </is>
       </c>
